--- a/OrangeHRMTestData.xlsx
+++ b/OrangeHRMTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6800" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="6800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
     <t>create Customer</t>
   </si>
   <si>
-    <t>Wipro</t>
+    <t>Apache Software Foundation</t>
   </si>
   <si>
     <t xml:space="preserve">Wipro Limited is a global information technology
@@ -65,7 +65,7 @@
     <t>Digital clock</t>
   </si>
   <si>
-    <t>Deepak D</t>
+    <t>Ranga  Akunuri</t>
   </si>
   <si>
     <t>Manual and Digital clock</t>
@@ -729,7 +729,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -740,9 +740,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1283,14 +1280,14 @@
   <sheetPr/>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="14.3636363636364" customWidth="1"/>
-    <col min="3" max="3" width="23.2727272727273" customWidth="1"/>
+    <col min="3" max="3" width="27.6363636363636" customWidth="1"/>
     <col min="4" max="4" width="41.6363636363636" customWidth="1"/>
     <col min="5" max="5" width="38.2727272727273" customWidth="1"/>
     <col min="6" max="6" width="13.6363636363636" customWidth="1"/>
@@ -1311,16 +1308,16 @@
       </c>
     </row>
     <row r="2" ht="43.5" spans="1:4">
-      <c r="A2" s="4">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1342,19 +1339,19 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="4">
+      <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1379,22 +1376,22 @@
       </c>
     </row>
     <row r="8" ht="58" spans="1:6">
-      <c r="A8" s="4">
+      <c r="A8" s="2">
         <v>3</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1409,7 +1406,7 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
